--- a/CashFlow/SYY_cashflow.xlsx
+++ b/CashFlow/SYY_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>13028000000.0</v>
+        <v>431311000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>13436000000.0</v>
+        <v>277574000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10114669000.0</v>
+        <v>114563000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>7136734000.0</v>
+        <v>-380326000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3411439000.0</v>
+        <v>-189633000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-71898000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-558130000.0</v>
+        <v>15006000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-218211000.0</v>
+        <v>15611000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-887885000.0</v>
+        <v>11483339000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-332604000.0</v>
+        <v>8111338000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-199630000.0</v>
+        <v>4112756000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>156165000.0</v>
